--- a/SQL/SQL評量_蔣澍儀.xlsx
+++ b/SQL/SQL評量_蔣澍儀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44AD266-F0F3-495D-AB62-1F398894BF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40A7110-BB3D-4BE0-A52D-522A065C4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="103">
   <si>
     <r>
       <rPr>
@@ -2523,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4065,503 +4065,668 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:5">
       <c r="A81" s="14"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="84" spans="1:2" s="15" customFormat="1">
+    <row r="84" spans="1:5" s="15" customFormat="1">
       <c r="A84" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="14" t="s">
+    <row r="85" spans="1:5">
+      <c r="B85" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="C85" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C86" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="2">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3142</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90">
+        <v>1072</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91">
+        <v>32</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="31.5">
+      <c r="A92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92">
+        <v>106</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="31.5">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <v>26</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2038</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="31.5">
+      <c r="A95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="7">
+        <v>128</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <v>353</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97">
+        <v>501</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98">
+        <v>194</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99">
+        <v>78</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="12" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D112" s="10"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C117" t="s">
-        <v>98</v>
-      </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C118" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C119" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="14" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="12" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B141" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C141" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D141" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
         <v>40</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="14"/>
-      <c r="B142" s="2"/>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="14"/>
+      <c r="B146" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/SQL/SQL評量_蔣澍儀.xlsx
+++ b/SQL/SQL評量_蔣澍儀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40A7110-BB3D-4BE0-A52D-522A065C4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F068848-1533-49BD-BD52-B0BC4C99495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="108">
   <si>
     <r>
       <rPr>
@@ -2019,6 +2019,26 @@
   </si>
   <si>
     <t>3NF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施資訊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別的轄區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局代碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2026,7 +2046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2107,6 +2127,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2140,12 +2169,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2154,7 +2198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2207,6 +2251,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2523,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2935,149 +3039,114 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:11" s="37" customFormat="1">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="11" customFormat="1">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:12" s="11" customFormat="1">
+      <c r="A19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2">
-        <v>100</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3142</v>
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -3100,22 +3169,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
-        <v>1072</v>
+        <v>72</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3142</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -3135,25 +3204,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22">
-        <v>32</v>
+        <v>1072</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -3171,42 +3240,42 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.5">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G23">
-        <v>106</v>
-      </c>
-      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
-        <v>40</v>
+      <c r="I23" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="31.5">
@@ -3226,10 +3295,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3240,16 +3309,16 @@
       <c r="J24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K24" t="s">
-        <v>85</v>
+      <c r="K24" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="32.25" customHeight="1">
+    <row r="25" spans="1:12" ht="31.5">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -3264,13 +3333,13 @@
         <v>38</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2038</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
@@ -3302,10 +3371,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7">
-        <v>128</v>
+        <v>2038</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -3323,65 +3392,65 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="32.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27">
-        <v>353</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="7">
+        <v>128</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>85</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -3401,25 +3470,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -3439,7 +3508,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>60</v>
@@ -3454,10 +3523,10 @@
         <v>63</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -3475,1260 +3544,1432 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="15" customFormat="1">
-      <c r="A33" s="17" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="15" customFormat="1">
+      <c r="A34" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:5" s="15" customFormat="1">
+      <c r="A35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B38" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C38" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D38" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E38" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" s="36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" s="36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="14" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C50" s="32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B51" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C51" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D51" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E51" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B52" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C52" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D52" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E52" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B53" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C53" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D53" s="24">
         <v>100</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E53" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B54" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C54" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D54" s="27">
         <v>3142</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E54" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B55" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C55" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D51">
+      <c r="D55" s="20">
         <v>1072</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E55" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B56" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C56" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D52">
+      <c r="D56" s="20">
         <v>32</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E56" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5">
-      <c r="A53" s="2" t="s">
+    <row r="57" spans="1:5" ht="31.5">
+      <c r="A57" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B57" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C57" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D53">
+      <c r="D57" s="20">
         <v>106</v>
       </c>
-      <c r="E53">
+      <c r="E57" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5">
-      <c r="A54" s="2" t="s">
+    <row r="58" spans="1:5" ht="31.5">
+      <c r="A58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B58" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C58" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D54">
+      <c r="D58" s="20">
         <v>26</v>
       </c>
-      <c r="E54">
+      <c r="E58" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B59" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C59" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D59" s="29">
         <v>2038</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E59" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5">
-      <c r="A56" s="2" t="s">
+    <row r="60" spans="1:5" ht="31.5">
+      <c r="A60" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B60" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C60" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D60" s="29">
         <v>128</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E60" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B61" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C61" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D57">
+      <c r="D61" s="20">
         <v>353</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E61" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B62" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C62" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D58">
+      <c r="D62" s="20">
         <v>501</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E62" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B63" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C63" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D59">
+      <c r="D63" s="20">
         <v>194</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E63" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B64" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C64" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D60">
+      <c r="D64" s="20">
         <v>78</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E64" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="14" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="5"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="5"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="31"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
+      <c r="B68" s="32"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="12" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B70" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B71" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B72" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B73" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B74" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B75" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B76" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B77" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B78" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="14"/>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="84" spans="1:5" s="15" customFormat="1">
-      <c r="A84" s="17" t="s">
+      <c r="A81" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="14"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="92" spans="1:5" s="15" customFormat="1">
+      <c r="A92" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="B85" s="14" t="s">
+    <row r="93" spans="1:5" s="19" customFormat="1">
+      <c r="A93" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C94" s="32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B95" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C95" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D95" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E95" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="12" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B96" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C96" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D96" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E96" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B97" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C97" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D97" s="24">
         <v>100</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E97" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B98" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C98" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D98" s="27">
         <v>3142</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E98" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B99" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C99" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D90">
+      <c r="D99" s="20">
         <v>1072</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E99" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B100" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C100" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D91">
+      <c r="D100" s="20">
         <v>32</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E100" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="31.5">
-      <c r="A92" s="2" t="s">
+    <row r="101" spans="1:5" ht="31.5">
+      <c r="A101" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B101" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C101" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D92">
+      <c r="D101" s="20">
         <v>106</v>
       </c>
-      <c r="E92">
+      <c r="E101" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="31.5">
-      <c r="A93" s="2" t="s">
+    <row r="102" spans="1:5" ht="31.5">
+      <c r="A102" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B102" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C102" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D93">
+      <c r="D102" s="20">
         <v>26</v>
       </c>
-      <c r="E93">
+      <c r="E102" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B103" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C103" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D103" s="29">
         <v>2038</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E103" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="31.5">
-      <c r="A95" s="2" t="s">
+    <row r="104" spans="1:5" ht="31.5">
+      <c r="A104" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B104" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C104" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D104" s="29">
         <v>128</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E104" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B105" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C105" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D96">
+      <c r="D105" s="20">
         <v>353</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E105" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B106" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C106" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D97">
+      <c r="D106" s="20">
         <v>501</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E106" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B107" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C107" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D98">
+      <c r="D107" s="20">
         <v>194</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E107" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B108" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C108" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D99">
+      <c r="D108" s="20">
         <v>78</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E108" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="14" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1" t="s">
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B112" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C112" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="12" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B113" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C113" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B114" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C114" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="2" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B115" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C115" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="2" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B116" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C116" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="2" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B117" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C117" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B118" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C118" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B119" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C119" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="2" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B120" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C120" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B121" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C121" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="14" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="s">
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B126" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C126" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="10"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="12" t="s">
+      <c r="D126" s="10"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B127" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C127" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D116" s="10"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B128" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C128" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B129" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C129" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B130" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C130" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B131" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C131" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B132" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C132" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B133" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C133" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B134" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C134" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B135" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C135" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="14" t="s">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B138" s="31"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1" t="s">
+      <c r="B139" s="32"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B140" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="12" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B141" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B142" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B143" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B144" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B145" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B146" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B147" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B148" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B149" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="14" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C154" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D154" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="12" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B155" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C155" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D155" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B156" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C156" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D156" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B157" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C157" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D157" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B158" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C158" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D158" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="14"/>
-      <c r="B146" s="2"/>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="14"/>
+      <c r="B160" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A81:D81"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
